--- a/GPIO.xlsx
+++ b/GPIO.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\2021\IAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\2021\IAS\IntegratedAvionicsSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398CAB30-E7D1-48B6-8144-5C1FB8744A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20069B18-B98A-4AD3-BE6D-C6E1BCE50C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7F7D35C-F34D-4D13-A132-7FAC7CDEDC53}"/>
   </bookViews>
   <sheets>
-    <sheet name="GPIO" sheetId="1" r:id="rId1"/>
-    <sheet name="SBLink" sheetId="2" r:id="rId2"/>
+    <sheet name="GPIO-New" sheetId="3" r:id="rId1"/>
+    <sheet name="GPIO" sheetId="1" r:id="rId2"/>
+    <sheet name="SBLink" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -659,6 +660,22 @@
   </si>
   <si>
     <t>PWM_IN8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_SCK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_MISO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_MOSI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -807,7 +824,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,6 +879,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,6 +902,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1198,11 +1224,680 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD42C0F6-76A5-43A4-ACF4-5F0C1CB7F109}">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="3.375" customWidth="1"/>
+    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="7" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" s="27"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="H8" s="27"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" s="27"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="H15" s="27"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="H16" s="27"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA91FD8B-EC9E-4FAB-ABEB-3DEF11C8F37E}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1257,7 +1952,7 @@
       <c r="E2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -1282,7 +1977,7 @@
       <c r="E3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="11" t="s">
         <v>91</v>
       </c>
@@ -1290,10 +1985,10 @@
       <c r="K3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="22" t="s">
         <v>132</v>
       </c>
     </row>
@@ -1309,7 +2004,7 @@
       <c r="E4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="11" t="s">
         <v>92</v>
       </c>
@@ -1317,8 +2012,8 @@
       <c r="K4" s="7">
         <v>3.3</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1332,7 +2027,7 @@
       <c r="E5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="11" t="s">
         <v>93</v>
       </c>
@@ -1343,7 +2038,7 @@
       <c r="L5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M5" s="21"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1354,7 +2049,7 @@
         <v>163</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="11" t="s">
         <v>94</v>
       </c>
@@ -1362,10 +2057,10 @@
       <c r="K6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1377,7 +2072,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>135</v>
       </c>
       <c r="I7" s="13" t="s">
@@ -1387,8 +2082,8 @@
       <c r="K7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1400,7 +2095,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="13" t="s">
         <v>96</v>
       </c>
@@ -1411,7 +2106,7 @@
       <c r="L8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="21"/>
+      <c r="M8" s="22"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1426,7 +2121,7 @@
         <v>168</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>136</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -1436,10 +2131,10 @@
       <c r="K9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="21"/>
+      <c r="M9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1456,7 +2151,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="13" t="s">
         <v>98</v>
       </c>
@@ -1464,8 +2159,8 @@
       <c r="K10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="21"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -1489,8 +2184,8 @@
       <c r="K11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="21"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1514,8 +2209,8 @@
       <c r="K12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1539,8 +2234,8 @@
       <c r="K13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1562,10 +2257,10 @@
       <c r="K14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="22" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1581,7 +2276,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>129</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -1591,8 +2286,8 @@
       <c r="K15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -1606,7 +2301,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="13" t="s">
         <v>104</v>
       </c>
@@ -1630,7 +2325,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="23" t="s">
         <v>130</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -1652,7 +2347,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="13" t="s">
         <v>106</v>
       </c>
@@ -1985,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B7E4174-8F8E-450E-8F71-1EA30FDB9AB0}">
   <dimension ref="A1:L23"/>
   <sheetViews>
@@ -2055,184 +2750,184 @@
       <c r="G2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="24">
         <v>0</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="I4" s="23" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="I4" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="I6" s="23" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="I6" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="37">

--- a/GPIO.xlsx
+++ b/GPIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\2021\IAS\IntegratedAvionicsSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20069B18-B98A-4AD3-BE6D-C6E1BCE50C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1B5D81-8312-4885-B81B-85BE16E41861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{D7F7D35C-F34D-4D13-A132-7FAC7CDEDC53}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="183">
   <si>
     <t>GPIO</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -663,10 +663,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ADC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SPI_SCK</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -676,6 +672,34 @@
   </si>
   <si>
     <t>SPI_MOSI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPI_CS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH3/ADC12_IN8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3_CH4/ADC12_IN9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -715,8 +739,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -731,6 +763,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -813,7 +850,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,8 +860,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +922,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -903,16 +952,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1225,667 +1272,867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD42C0F6-76A5-43A4-ACF4-5F0C1CB7F109}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="7" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="9" style="18"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="3.375" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="9.125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H1"/>
+      <c r="G1" s="21" t="s">
+        <v>176</v>
+      </c>
       <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="I2" s="20"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3"/>
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="I3" s="20"/>
       <c r="J3"/>
       <c r="K3"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4"/>
+      <c r="L3"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="I4" s="20"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5"/>
+      <c r="L4"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="20"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-      <c r="M5" s="27"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6"/>
+      <c r="M5"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="20"/>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="H7" s="27"/>
-      <c r="I7"/>
+      <c r="L6"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="20"/>
       <c r="J7"/>
       <c r="K7"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="L7"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="H8" s="27"/>
-      <c r="I8"/>
+      <c r="F8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="20"/>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" s="27"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="I9"/>
+      <c r="M8"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="I9" s="20"/>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10"/>
+      <c r="L9"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="20"/>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H11"/>
+      <c r="L10"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12"/>
+      <c r="L11"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>168</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="L12"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="L13"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="H14"/>
+      <c r="F14" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>36</v>
+      <c r="L14"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="H15" s="27"/>
-      <c r="I15"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="I15" s="20"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="H16" s="27"/>
-      <c r="I16"/>
+      <c r="L15"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="20"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17"/>
+        <v>162</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="20"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="20"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
       <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>0</v>
+      </c>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="H20"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>0</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>0</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="2"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22"/>
+        <v>153</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>30</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>31</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>33</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>37</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>39</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="E32" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="F32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>42</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="G33" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="G34" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="C35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="G35" s="29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="C36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F36" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="G36" s="29" t="s">
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1896,8 +2143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA91FD8B-EC9E-4FAB-ABEB-3DEF11C8F37E}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1952,7 +2199,7 @@
       <c r="E2" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="22" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -1977,7 +2224,7 @@
       <c r="E3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="11" t="s">
         <v>91</v>
       </c>
@@ -1985,10 +2232,10 @@
       <c r="K3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="25" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2004,7 +2251,7 @@
       <c r="E4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="11" t="s">
         <v>92</v>
       </c>
@@ -2012,8 +2259,8 @@
       <c r="K4" s="7">
         <v>3.3</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2027,7 +2274,7 @@
       <c r="E5" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="11" t="s">
         <v>93</v>
       </c>
@@ -2038,7 +2285,7 @@
       <c r="L5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M5" s="22"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2049,7 +2296,7 @@
         <v>163</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="11" t="s">
         <v>94</v>
       </c>
@@ -2057,10 +2304,10 @@
       <c r="K6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="M6" s="22"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2072,7 +2319,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="22" t="s">
         <v>135</v>
       </c>
       <c r="I7" s="13" t="s">
@@ -2082,8 +2329,8 @@
       <c r="K7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2095,7 +2342,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="13" t="s">
         <v>96</v>
       </c>
@@ -2106,7 +2353,7 @@
       <c r="L8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="22"/>
+      <c r="M8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -2121,7 +2368,7 @@
         <v>168</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="22" t="s">
         <v>136</v>
       </c>
       <c r="I9" s="13" t="s">
@@ -2131,10 +2378,10 @@
       <c r="K9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="M9" s="22"/>
+      <c r="M9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2151,7 +2398,7 @@
         <v>144</v>
       </c>
       <c r="G10" s="16"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="13" t="s">
         <v>98</v>
       </c>
@@ -2159,8 +2406,8 @@
       <c r="K10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2184,8 +2431,8 @@
       <c r="K11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2209,8 +2456,8 @@
       <c r="K12" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2234,8 +2481,8 @@
       <c r="K13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -2257,10 +2504,10 @@
       <c r="K14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="25" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2276,7 +2523,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="26" t="s">
         <v>129</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -2286,8 +2533,8 @@
       <c r="K15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2301,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="H16" s="21"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="13" t="s">
         <v>104</v>
       </c>
@@ -2325,7 +2572,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="26" t="s">
         <v>130</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -2347,7 +2594,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="13" t="s">
         <v>106</v>
       </c>
@@ -2750,215 +2997,187 @@
       <c r="G2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="27">
         <v>0</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="I4" s="24" t="s">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="I4" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="I6" s="24" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="I6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
     </row>
     <row r="20" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
     </row>
     <row r="22" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
     </row>
     <row r="23" spans="9:11" x14ac:dyDescent="0.2">
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
@@ -2968,6 +3187,34 @@
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
